--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value440.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value440.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.524693029229928</v>
+        <v>1.889471650123596</v>
       </c>
       <c r="B1">
-        <v>1.802819790987333</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.724914228331521</v>
+        <v>2.693895101547241</v>
       </c>
       <c r="D1">
-        <v>2.055443785552669</v>
+        <v>1.252211213111877</v>
       </c>
       <c r="E1">
-        <v>2.075884478994579</v>
+        <v>0.912026584148407</v>
       </c>
     </row>
   </sheetData>
